--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_2_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_2_23.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1433545.751383976</v>
+        <v>1458288.238693532</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>558908.7136639266</v>
+        <v>558908.7136639262</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6194455.33022951</v>
+        <v>6194455.330229509</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.7701344063711</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,19 +710,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>338.7498590796928</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -865,16 +865,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>94.63926978364057</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>128.7835007017903</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>163.8950372953901</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -911,10 +911,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>262.9810209066301</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1060,13 +1060,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>18.3768222575565</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>44.82579829756118</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -1075,7 +1075,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>179.926960348984</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>106.218472715745</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,7 +1148,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>155.2114886365809</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>16.88986550434922</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,25 +1370,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>326.2660671543615</v>
       </c>
       <c r="G11" t="n">
-        <v>22.36429140140451</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>320.608810155027</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>139.4561258631989</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>167.0419134231436</v>
       </c>
       <c r="T11" t="n">
-        <v>215.03180661936</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.1982803354592</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1549,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>34.9377706442593</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1570,25 +1570,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>16.96831782410013</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>140.1386670296631</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>209.6159497203185</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>224.4149140454817</v>
       </c>
       <c r="U13" t="n">
-        <v>247.8470117585222</v>
+        <v>160.4320341551185</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>27.9192472509553</v>
       </c>
       <c r="G14" t="n">
-        <v>413.4605803604186</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>320.608810155027</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.71324019975623</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>34.15171357119078</v>
       </c>
       <c r="S14" t="n">
-        <v>167.0419134231436</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>215.03180661936</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>34.9377706442593</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1807,28 +1807,28 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>16.96831782410013</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>140.1386670296631</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>209.6159497203185</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>224.4149140454817</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2739569047956</v>
+        <v>160.4320341551185</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>213.7106981775546</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1850,19 +1850,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>413.4605803604186</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>320.608810155027</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>89.65750459523362</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,16 +1892,16 @@
         <v>34.15171357119078</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>167.0419134231436</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>215.03180661936</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.1982803354592</v>
       </c>
       <c r="V17" t="n">
-        <v>320.9199415116774</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>209.6159497203185</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2059,16 +2059,16 @@
         <v>286.2739569047956</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>248.0960531903176</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>4.094748457236224</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2093,10 +2093,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>413.4605803604186</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>320.608810155027</v>
+        <v>183.7583167704311</v>
       </c>
       <c r="I20" t="n">
         <v>139.4561258631989</v>
@@ -2126,25 +2126,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>34.15171357119078</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>167.0419134231436</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>215.03180661936</v>
       </c>
       <c r="U20" t="n">
-        <v>251.1982803354592</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>310.15412060905</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2242,16 +2242,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>80.33968557153284</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.164651077378</v>
       </c>
       <c r="H22" t="n">
         <v>154.8803628811029</v>
@@ -2260,7 +2260,7 @@
         <v>130.6005298925735</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>34.9377706442593</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2281,13 +2281,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>16.96831782410013</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>140.1386670296631</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>195.3043027732894</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2315,19 +2315,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>177.0913576287163</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>413.4605803604186</v>
@@ -2363,28 +2363,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>34.15171357119078</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>215.03180661936</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.1982803354592</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>193.6666183388146</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>48.1354059070264</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2518,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>16.96831782410013</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2539,10 +2539,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>220.8441987862812</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>83.87644156774525</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2567,7 +2567,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.4605803604186</v>
+        <v>201.7221958234696</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2600,16 +2600,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>34.15171357119078</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>167.0419134231436</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>215.03180661936</v>
       </c>
       <c r="U26" t="n">
-        <v>251.1982803354592</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2716,10 +2716,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>6.414148549299091</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2755,25 +2755,25 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>16.96831782410013</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>140.1386670296631</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>224.4149140454817</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>247.8470117585222</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>218.0005849535422</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2801,16 +2801,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.4605803604186</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>320.608810155027</v>
+        <v>27.91924725095575</v>
       </c>
       <c r="I29" t="n">
-        <v>139.4561258631989</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2852,13 +2852,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2965,7 +2965,7 @@
         <v>167.164651077378</v>
       </c>
       <c r="H31" t="n">
-        <v>154.8803628811029</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3001,16 +3001,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>224.4149140454817</v>
+        <v>186.386041358403</v>
       </c>
       <c r="U31" t="n">
-        <v>93.61376276840953</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3044,10 +3044,10 @@
         <v>413.4605803604186</v>
       </c>
       <c r="H32" t="n">
-        <v>320.608810155027</v>
+        <v>273.4106035282473</v>
       </c>
       <c r="I32" t="n">
-        <v>139.4561258631989</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,28 +3074,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>34.15171357119078</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>167.0419134231436</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>215.03180661936</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.1982803354592</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>284.6248345588707</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3190,25 +3190,25 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>7.069328254127217</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.164651077378</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>154.8803628811029</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>130.6005298925735</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>34.9377706442593</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3238,16 +3238,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>224.4149140454817</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2739569047956</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>23.68113914483641</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3263,16 +3263,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0.5392537858550963</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3311,28 +3311,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>34.15171357119078</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>167.0419134231436</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>215.03180661936</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.1982803354592</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>106.9185521022598</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>55.69034634121827</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3478,19 +3478,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>247.8470117585222</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3509,19 +3509,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>63.8592927405404</v>
+        <v>413.4605803604186</v>
       </c>
       <c r="H38" t="n">
         <v>320.608810155027</v>
       </c>
       <c r="I38" t="n">
-        <v>139.4561258631989</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,13 +3548,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>34.15171357119075</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>136.9060470599009</v>
       </c>
       <c r="U38" t="n">
         <v>251.1982803354592</v>
@@ -3563,10 +3563,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3658,31 +3658,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.164651077378</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>154.8803628811029</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>130.6005298925735</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>34.93777064425929</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3703,10 +3703,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>16.96831782410011</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>136.5349730765964</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3721,13 +3721,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.5372018822007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,10 +3737,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3749,13 +3749,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>26.78440461236301</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.4605803604186</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>169.4362962762076</v>
       </c>
       <c r="I41" t="n">
         <v>139.4561258631989</v>
@@ -3785,10 +3785,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>34.15171357119075</v>
       </c>
       <c r="S41" t="n">
-        <v>167.0419134231436</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>215.03180661936</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3910,16 +3910,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.164651077378</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>73.71636074702685</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>34.93777064425929</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3949,22 +3949,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>224.4149140454817</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2739569047956</v>
+        <v>29.26235840642758</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3980,7 +3980,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>322.53289405169</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3992,7 +3992,7 @@
         <v>413.4605803604186</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>320.608810155027</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4022,7 +4022,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>34.15171357119075</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4034,13 +4034,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>239.2588899570572</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4150,13 +4150,13 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>154.8803628811029</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>130.6005298925735</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>34.93777064425929</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4177,28 +4177,28 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.96831782410011</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>140.1386670296631</v>
       </c>
       <c r="S46" t="n">
-        <v>209.6159497203184</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>99.36605542692392</v>
+        <v>168.5216876764131</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1964.838184214438</v>
+        <v>1017.943709336667</v>
       </c>
       <c r="C2" t="n">
-        <v>1595.875667274027</v>
+        <v>1017.943709336667</v>
       </c>
       <c r="D2" t="n">
-        <v>1595.875667274027</v>
+        <v>1017.943709336667</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>632.1554567384226</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>221.169551948815</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>207.2461478874059</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.2461478874059</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4358,22 +4358,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W2" t="n">
-        <v>2697.149091018222</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="X2" t="n">
-        <v>2354.97751619025</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="Y2" t="n">
-        <v>1964.838184214438</v>
+        <v>1404.543549400789</v>
       </c>
     </row>
     <row r="3">
@@ -4407,16 +4407,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4513,13 +4513,13 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U4" t="n">
-        <v>598.0446400632119</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V4" t="n">
         <v>343.360151857325</v>
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2476.569858826099</v>
+        <v>1534.318342165211</v>
       </c>
       <c r="C5" t="n">
-        <v>2107.607341885688</v>
+        <v>1534.318342165211</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>1534.318342165211</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>1148.530089566967</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>737.5441847773595</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>319.5803766755464</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4601,16 +4601,16 @@
         <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548716</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="X5" t="n">
-        <v>2642.120401548716</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="Y5" t="n">
-        <v>2642.120401548716</v>
+        <v>1920.918182229333</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="D7" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="E7" t="n">
-        <v>709.5665374816297</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="F7" t="n">
-        <v>562.6765899837193</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="G7" t="n">
         <v>393.6767897220517</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610024</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1512.612574238668</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="C8" t="n">
-        <v>1143.650057298256</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D8" t="n">
-        <v>1143.650057298256</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,19 +4826,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="W8" t="n">
         <v>2289.351746278601</v>
@@ -4847,7 +4847,7 @@
         <v>2289.351746278601</v>
       </c>
       <c r="Y8" t="n">
-        <v>1899.21241430279</v>
+        <v>2289.351746278601</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4893,7 +4893,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>711.0685140000211</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>711.0685140000211</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>711.0685140000211</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>711.0685140000211</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>711.0685140000211</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>456.3840257941342</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>456.3840257941342</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X10" t="n">
-        <v>456.3840257941342</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.5914466506042</v>
+        <v>210.7222632714563</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1703.765593286574</v>
+        <v>1145.735940906113</v>
       </c>
       <c r="C11" t="n">
-        <v>1703.765593286574</v>
+        <v>776.7734239657018</v>
       </c>
       <c r="D11" t="n">
-        <v>1345.499894679823</v>
+        <v>776.7734239657018</v>
       </c>
       <c r="E11" t="n">
-        <v>959.7116420815792</v>
+        <v>390.9851713674576</v>
       </c>
       <c r="F11" t="n">
-        <v>548.7257372919717</v>
+        <v>61.42348737315296</v>
       </c>
       <c r="G11" t="n">
-        <v>526.1355439572196</v>
+        <v>61.42348737315296</v>
       </c>
       <c r="H11" t="n">
-        <v>202.2882609723438</v>
+        <v>61.42348737315296</v>
       </c>
       <c r="I11" t="n">
         <v>61.42348737315296</v>
@@ -5066,25 +5066,25 @@
         <v>3071.174368657648</v>
       </c>
       <c r="S11" t="n">
-        <v>3071.174368657648</v>
+        <v>2902.445163179725</v>
       </c>
       <c r="T11" t="n">
-        <v>2853.970523587587</v>
+        <v>2902.445163179725</v>
       </c>
       <c r="U11" t="n">
-        <v>2853.970523587587</v>
+        <v>2648.709526477241</v>
       </c>
       <c r="V11" t="n">
-        <v>2853.970523587587</v>
+        <v>2648.709526477241</v>
       </c>
       <c r="W11" t="n">
-        <v>2853.970523587587</v>
+        <v>2295.940871207127</v>
       </c>
       <c r="X11" t="n">
-        <v>2480.504765326507</v>
+        <v>1922.475112946047</v>
       </c>
       <c r="Y11" t="n">
-        <v>2090.365433350696</v>
+        <v>1532.335780970235</v>
       </c>
     </row>
     <row r="12">
@@ -5121,19 +5121,19 @@
         <v>61.42348737315296</v>
       </c>
       <c r="K12" t="n">
-        <v>224.3132334070477</v>
+        <v>344.348855451549</v>
       </c>
       <c r="L12" t="n">
-        <v>666.1457022342951</v>
+        <v>786.1813242787963</v>
       </c>
       <c r="M12" t="n">
-        <v>1233.722575104782</v>
+        <v>1353.758197149283</v>
       </c>
       <c r="N12" t="n">
-        <v>1832.028532309912</v>
+        <v>1952.064154354413</v>
       </c>
       <c r="O12" t="n">
-        <v>2312.945916345017</v>
+        <v>2432.981538389518</v>
       </c>
       <c r="P12" t="n">
         <v>2681.921447781306</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>61.42348737315296</v>
+        <v>96.7141647915967</v>
       </c>
       <c r="C13" t="n">
-        <v>61.42348737315296</v>
+        <v>96.7141647915967</v>
       </c>
       <c r="D13" t="n">
-        <v>61.42348737315296</v>
+        <v>96.7141647915967</v>
       </c>
       <c r="E13" t="n">
-        <v>61.42348737315296</v>
+        <v>96.7141647915967</v>
       </c>
       <c r="F13" t="n">
-        <v>61.42348737315296</v>
+        <v>96.7141647915967</v>
       </c>
       <c r="G13" t="n">
-        <v>61.42348737315296</v>
+        <v>96.7141647915967</v>
       </c>
       <c r="H13" t="n">
-        <v>61.42348737315296</v>
+        <v>96.7141647915967</v>
       </c>
       <c r="I13" t="n">
-        <v>61.42348737315296</v>
+        <v>96.7141647915967</v>
       </c>
       <c r="J13" t="n">
         <v>61.42348737315296</v>
@@ -5218,31 +5218,31 @@
         <v>855.8756625438007</v>
       </c>
       <c r="Q13" t="n">
-        <v>855.8756625438007</v>
+        <v>838.7359475699621</v>
       </c>
       <c r="R13" t="n">
-        <v>855.8756625438007</v>
+        <v>697.1817384490903</v>
       </c>
       <c r="S13" t="n">
-        <v>855.8756625438007</v>
+        <v>485.4484559033141</v>
       </c>
       <c r="T13" t="n">
-        <v>855.8756625438007</v>
+        <v>258.7667245442417</v>
       </c>
       <c r="U13" t="n">
-        <v>605.5251456160005</v>
+        <v>96.7141647915967</v>
       </c>
       <c r="V13" t="n">
-        <v>350.8406574101136</v>
+        <v>96.7141647915967</v>
       </c>
       <c r="W13" t="n">
-        <v>61.42348737315296</v>
+        <v>96.7141647915967</v>
       </c>
       <c r="X13" t="n">
-        <v>61.42348737315296</v>
+        <v>96.7141647915967</v>
       </c>
       <c r="Y13" t="n">
-        <v>61.42348737315296</v>
+        <v>96.7141647915967</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1203.308004884148</v>
+        <v>1202.641215368009</v>
       </c>
       <c r="C14" t="n">
-        <v>1203.308004884148</v>
+        <v>833.6786984275975</v>
       </c>
       <c r="D14" t="n">
-        <v>845.0423062773973</v>
+        <v>475.412999820847</v>
       </c>
       <c r="E14" t="n">
-        <v>845.0423062773973</v>
+        <v>89.62474722260276</v>
       </c>
       <c r="F14" t="n">
-        <v>845.0423062773973</v>
+        <v>61.42348737315296</v>
       </c>
       <c r="G14" t="n">
-        <v>427.4053564183886</v>
+        <v>61.42348737315296</v>
       </c>
       <c r="H14" t="n">
-        <v>103.5580734335128</v>
+        <v>61.42348737315296</v>
       </c>
       <c r="I14" t="n">
         <v>61.42348737315296</v>
       </c>
       <c r="J14" t="n">
-        <v>204.3809688641027</v>
+        <v>204.380968864103</v>
       </c>
       <c r="K14" t="n">
-        <v>539.3819799625985</v>
+        <v>539.3819799625987</v>
       </c>
       <c r="L14" t="n">
         <v>1007.256984588248</v>
@@ -5288,7 +5288,7 @@
         <v>1544.464622569331</v>
       </c>
       <c r="N14" t="n">
-        <v>2075.732844220428</v>
+        <v>2075.732844220429</v>
       </c>
       <c r="O14" t="n">
         <v>2532.206723101795</v>
@@ -5303,25 +5303,25 @@
         <v>3036.677688282708</v>
       </c>
       <c r="S14" t="n">
-        <v>2867.948482804785</v>
+        <v>3036.677688282708</v>
       </c>
       <c r="T14" t="n">
-        <v>2650.744637734724</v>
+        <v>3036.677688282708</v>
       </c>
       <c r="U14" t="n">
-        <v>2650.744637734724</v>
+        <v>3036.677688282708</v>
       </c>
       <c r="V14" t="n">
-        <v>2319.681750391153</v>
+        <v>2705.614800939137</v>
       </c>
       <c r="W14" t="n">
-        <v>1966.913095121039</v>
+        <v>2352.846145669022</v>
       </c>
       <c r="X14" t="n">
-        <v>1593.447336859959</v>
+        <v>1979.380387407943</v>
       </c>
       <c r="Y14" t="n">
-        <v>1203.308004884148</v>
+        <v>1589.241055432131</v>
       </c>
     </row>
     <row r="15">
@@ -5358,19 +5358,19 @@
         <v>61.42348737315296</v>
       </c>
       <c r="K15" t="n">
-        <v>224.3132334070477</v>
+        <v>344.348855451549</v>
       </c>
       <c r="L15" t="n">
-        <v>666.1457022342951</v>
+        <v>786.1813242787963</v>
       </c>
       <c r="M15" t="n">
-        <v>1233.722575104782</v>
+        <v>1353.758197149283</v>
       </c>
       <c r="N15" t="n">
-        <v>1832.028532309912</v>
+        <v>1952.064154354413</v>
       </c>
       <c r="O15" t="n">
-        <v>2312.945916345017</v>
+        <v>2432.981538389518</v>
       </c>
       <c r="P15" t="n">
         <v>2681.921447781306</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>61.42348737315296</v>
+        <v>96.7141647915967</v>
       </c>
       <c r="C16" t="n">
-        <v>61.42348737315296</v>
+        <v>96.7141647915967</v>
       </c>
       <c r="D16" t="n">
-        <v>61.42348737315296</v>
+        <v>96.7141647915967</v>
       </c>
       <c r="E16" t="n">
-        <v>61.42348737315296</v>
+        <v>96.7141647915967</v>
       </c>
       <c r="F16" t="n">
-        <v>61.42348737315296</v>
+        <v>96.7141647915967</v>
       </c>
       <c r="G16" t="n">
-        <v>61.42348737315296</v>
+        <v>96.7141647915967</v>
       </c>
       <c r="H16" t="n">
-        <v>61.42348737315296</v>
+        <v>96.7141647915967</v>
       </c>
       <c r="I16" t="n">
-        <v>61.42348737315296</v>
+        <v>96.7141647915967</v>
       </c>
       <c r="J16" t="n">
         <v>61.42348737315296</v>
@@ -5455,31 +5455,31 @@
         <v>855.8756625438007</v>
       </c>
       <c r="Q16" t="n">
-        <v>855.8756625438007</v>
+        <v>838.7359475699621</v>
       </c>
       <c r="R16" t="n">
-        <v>855.8756625438007</v>
+        <v>697.1817384490903</v>
       </c>
       <c r="S16" t="n">
-        <v>855.8756625438007</v>
+        <v>485.4484559033141</v>
       </c>
       <c r="T16" t="n">
-        <v>855.8756625438007</v>
+        <v>258.7667245442417</v>
       </c>
       <c r="U16" t="n">
-        <v>566.7100495086536</v>
+        <v>96.7141647915967</v>
       </c>
       <c r="V16" t="n">
-        <v>566.7100495086536</v>
+        <v>96.7141647915967</v>
       </c>
       <c r="W16" t="n">
-        <v>277.292879471693</v>
+        <v>96.7141647915967</v>
       </c>
       <c r="X16" t="n">
-        <v>61.42348737315296</v>
+        <v>96.7141647915967</v>
       </c>
       <c r="Y16" t="n">
-        <v>61.42348737315296</v>
+        <v>96.7141647915967</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1599.681877604889</v>
+        <v>562.972528117542</v>
       </c>
       <c r="C17" t="n">
-        <v>1599.681877604889</v>
+        <v>562.972528117542</v>
       </c>
       <c r="D17" t="n">
-        <v>1599.681877604889</v>
+        <v>562.972528117542</v>
       </c>
       <c r="E17" t="n">
-        <v>1213.893625006645</v>
+        <v>562.972528117542</v>
       </c>
       <c r="F17" t="n">
-        <v>802.9077202170374</v>
+        <v>151.9866233279344</v>
       </c>
       <c r="G17" t="n">
-        <v>385.2707703580288</v>
+        <v>151.9866233279344</v>
       </c>
       <c r="H17" t="n">
-        <v>61.42348737315296</v>
+        <v>151.9866233279344</v>
       </c>
       <c r="I17" t="n">
         <v>61.42348737315296</v>
@@ -5540,25 +5540,25 @@
         <v>3036.677688282708</v>
       </c>
       <c r="S17" t="n">
-        <v>3036.677688282708</v>
+        <v>2867.948482804785</v>
       </c>
       <c r="T17" t="n">
-        <v>3036.677688282708</v>
+        <v>2650.744637734724</v>
       </c>
       <c r="U17" t="n">
-        <v>3036.677688282708</v>
+        <v>2397.00900103224</v>
       </c>
       <c r="V17" t="n">
-        <v>2712.516131200205</v>
+        <v>2065.946113688669</v>
       </c>
       <c r="W17" t="n">
-        <v>2359.747475930091</v>
+        <v>1713.177458418555</v>
       </c>
       <c r="X17" t="n">
-        <v>1986.281717669011</v>
+        <v>1339.711700157475</v>
       </c>
       <c r="Y17" t="n">
-        <v>1986.281717669011</v>
+        <v>949.5723681816637</v>
       </c>
     </row>
     <row r="18">
@@ -5592,13 +5592,13 @@
         <v>61.42348737315296</v>
       </c>
       <c r="J18" t="n">
-        <v>61.42348737315296</v>
+        <v>152.8746043093674</v>
       </c>
       <c r="K18" t="n">
-        <v>82.52827080909614</v>
+        <v>435.7999723877633</v>
       </c>
       <c r="L18" t="n">
-        <v>472.1931002999826</v>
+        <v>877.6324412150107</v>
       </c>
       <c r="M18" t="n">
         <v>1039.769973170469</v>
@@ -5698,22 +5698,22 @@
         <v>855.8756625438007</v>
       </c>
       <c r="S19" t="n">
-        <v>855.8756625438007</v>
+        <v>644.1423799980245</v>
       </c>
       <c r="T19" t="n">
-        <v>855.8756625438007</v>
+        <v>644.1423799980245</v>
       </c>
       <c r="U19" t="n">
-        <v>566.7100495086536</v>
+        <v>354.9767669628774</v>
       </c>
       <c r="V19" t="n">
-        <v>312.0255613027667</v>
+        <v>354.9767669628774</v>
       </c>
       <c r="W19" t="n">
-        <v>61.42348737315296</v>
+        <v>65.55959692591682</v>
       </c>
       <c r="X19" t="n">
-        <v>61.42348737315296</v>
+        <v>65.55959692591682</v>
       </c>
       <c r="Y19" t="n">
         <v>61.42348737315296</v>
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1740.54665120408</v>
+        <v>1542.94257835122</v>
       </c>
       <c r="C20" t="n">
-        <v>1740.54665120408</v>
+        <v>1542.94257835122</v>
       </c>
       <c r="D20" t="n">
-        <v>1740.54665120408</v>
+        <v>1184.676879744469</v>
       </c>
       <c r="E20" t="n">
-        <v>1354.758398605836</v>
+        <v>798.8886271462252</v>
       </c>
       <c r="F20" t="n">
-        <v>943.7724938162283</v>
+        <v>387.9027223566176</v>
       </c>
       <c r="G20" t="n">
-        <v>526.1355439572196</v>
+        <v>387.9027223566176</v>
       </c>
       <c r="H20" t="n">
         <v>202.2882609723438</v>
@@ -5774,28 +5774,28 @@
         <v>3071.174368657648</v>
       </c>
       <c r="R20" t="n">
-        <v>3071.174368657648</v>
+        <v>3036.677688282708</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.174368657648</v>
+        <v>2867.948482804785</v>
       </c>
       <c r="T20" t="n">
-        <v>3071.174368657648</v>
+        <v>2650.744637734724</v>
       </c>
       <c r="U20" t="n">
-        <v>2817.438731955164</v>
+        <v>2650.744637734724</v>
       </c>
       <c r="V20" t="n">
-        <v>2504.151741440972</v>
+        <v>2319.681750391153</v>
       </c>
       <c r="W20" t="n">
-        <v>2504.151741440972</v>
+        <v>2319.681750391153</v>
       </c>
       <c r="X20" t="n">
-        <v>2130.685983179892</v>
+        <v>2319.681750391153</v>
       </c>
       <c r="Y20" t="n">
-        <v>1740.54665120408</v>
+        <v>1929.542418415342</v>
       </c>
     </row>
     <row r="21">
@@ -5832,22 +5832,22 @@
         <v>61.42348737315296</v>
       </c>
       <c r="K21" t="n">
-        <v>344.348855451549</v>
+        <v>224.3132334070477</v>
       </c>
       <c r="L21" t="n">
-        <v>786.1813242787963</v>
+        <v>666.1457022342951</v>
       </c>
       <c r="M21" t="n">
-        <v>1353.758197149283</v>
+        <v>1233.722575104782</v>
       </c>
       <c r="N21" t="n">
-        <v>1952.064154354413</v>
+        <v>1832.028532309912</v>
       </c>
       <c r="O21" t="n">
-        <v>2118.993314410705</v>
+        <v>2312.945916345017</v>
       </c>
       <c r="P21" t="n">
-        <v>2487.968845846993</v>
+        <v>2681.921447781306</v>
       </c>
       <c r="Q21" t="n">
         <v>2681.921447781306</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2715.203371054564</v>
+        <v>635.0830834002705</v>
       </c>
       <c r="C22" t="n">
-        <v>2715.203371054564</v>
+        <v>635.0830834002705</v>
       </c>
       <c r="D22" t="n">
-        <v>2565.086731642229</v>
+        <v>635.0830834002705</v>
       </c>
       <c r="E22" t="n">
-        <v>2565.086731642229</v>
+        <v>635.0830834002705</v>
       </c>
       <c r="F22" t="n">
-        <v>2565.086731642229</v>
+        <v>553.9318858532677</v>
       </c>
       <c r="G22" t="n">
-        <v>2565.086731642229</v>
+        <v>385.0787029468253</v>
       </c>
       <c r="H22" t="n">
-        <v>2408.641920651216</v>
+        <v>228.6338919558123</v>
       </c>
       <c r="I22" t="n">
-        <v>2276.722193487</v>
+        <v>96.7141647915967</v>
       </c>
       <c r="J22" t="n">
-        <v>2276.722193487</v>
+        <v>61.42348737315296</v>
       </c>
       <c r="K22" t="n">
-        <v>2349.719675469291</v>
+        <v>134.420969355444</v>
       </c>
       <c r="L22" t="n">
-        <v>2498.657754856165</v>
+        <v>283.3590487423176</v>
       </c>
       <c r="M22" t="n">
-        <v>2666.081200004475</v>
+        <v>450.7824938906278</v>
       </c>
       <c r="N22" t="n">
-        <v>2834.958306258811</v>
+        <v>619.6596001449642</v>
       </c>
       <c r="O22" t="n">
-        <v>2974.927351921911</v>
+        <v>759.6286458080639</v>
       </c>
       <c r="P22" t="n">
-        <v>3071.174368657648</v>
+        <v>855.8756625438007</v>
       </c>
       <c r="Q22" t="n">
-        <v>3054.034653683809</v>
+        <v>855.8756625438007</v>
       </c>
       <c r="R22" t="n">
-        <v>2912.480444562937</v>
+        <v>855.8756625438007</v>
       </c>
       <c r="S22" t="n">
-        <v>2715.203371054564</v>
+        <v>855.8756625438007</v>
       </c>
       <c r="T22" t="n">
-        <v>2715.203371054564</v>
+        <v>855.8756625438007</v>
       </c>
       <c r="U22" t="n">
-        <v>2715.203371054564</v>
+        <v>855.8756625438007</v>
       </c>
       <c r="V22" t="n">
-        <v>2715.203371054564</v>
+        <v>855.8756625438007</v>
       </c>
       <c r="W22" t="n">
-        <v>2715.203371054564</v>
+        <v>855.8756625438007</v>
       </c>
       <c r="X22" t="n">
-        <v>2715.203371054564</v>
+        <v>855.8756625438007</v>
       </c>
       <c r="Y22" t="n">
-        <v>2715.203371054564</v>
+        <v>635.0830834002705</v>
       </c>
     </row>
     <row r="23">
@@ -5963,16 +5963,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1508.440905635398</v>
+        <v>2098.812349810831</v>
       </c>
       <c r="C23" t="n">
-        <v>1508.440905635398</v>
+        <v>2098.812349810831</v>
       </c>
       <c r="D23" t="n">
-        <v>1508.440905635398</v>
+        <v>1740.54665120408</v>
       </c>
       <c r="E23" t="n">
-        <v>1122.652653037154</v>
+        <v>1354.758398605836</v>
       </c>
       <c r="F23" t="n">
         <v>943.7724938162283</v>
@@ -5993,13 +5993,13 @@
         <v>539.3819799625987</v>
       </c>
       <c r="L23" t="n">
-        <v>1007.256984588248</v>
+        <v>1007.256984588249</v>
       </c>
       <c r="M23" t="n">
         <v>1544.464622569331</v>
       </c>
       <c r="N23" t="n">
-        <v>2075.732844220428</v>
+        <v>2075.732844220429</v>
       </c>
       <c r="O23" t="n">
         <v>2532.206723101795</v>
@@ -6011,28 +6011,28 @@
         <v>3071.174368657648</v>
       </c>
       <c r="R23" t="n">
-        <v>3036.677688282708</v>
+        <v>3071.174368657648</v>
       </c>
       <c r="S23" t="n">
-        <v>3036.677688282708</v>
+        <v>3071.174368657648</v>
       </c>
       <c r="T23" t="n">
-        <v>2819.473843212647</v>
+        <v>3071.174368657648</v>
       </c>
       <c r="U23" t="n">
-        <v>2565.738206510163</v>
+        <v>3071.174368657648</v>
       </c>
       <c r="V23" t="n">
-        <v>2234.675319166592</v>
+        <v>3071.174368657648</v>
       </c>
       <c r="W23" t="n">
-        <v>1881.906663896478</v>
+        <v>3071.174368657648</v>
       </c>
       <c r="X23" t="n">
-        <v>1508.440905635398</v>
+        <v>2875.551521850764</v>
       </c>
       <c r="Y23" t="n">
-        <v>1508.440905635398</v>
+        <v>2485.412189874953</v>
       </c>
     </row>
     <row r="24">
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>429.0979318417051</v>
+        <v>230.3596703010599</v>
       </c>
       <c r="C25" t="n">
-        <v>260.1617489137982</v>
+        <v>61.42348737315296</v>
       </c>
       <c r="D25" t="n">
-        <v>110.0451095014625</v>
+        <v>61.42348737315296</v>
       </c>
       <c r="E25" t="n">
-        <v>110.0451095014625</v>
+        <v>61.42348737315296</v>
       </c>
       <c r="F25" t="n">
-        <v>110.0451095014625</v>
+        <v>61.42348737315296</v>
       </c>
       <c r="G25" t="n">
         <v>61.42348737315296</v>
@@ -6166,31 +6166,31 @@
         <v>855.8756625438007</v>
       </c>
       <c r="Q25" t="n">
-        <v>838.7359475699621</v>
+        <v>855.8756625438007</v>
       </c>
       <c r="R25" t="n">
-        <v>838.7359475699621</v>
+        <v>855.8756625438007</v>
       </c>
       <c r="S25" t="n">
-        <v>838.7359475699621</v>
+        <v>855.8756625438007</v>
       </c>
       <c r="T25" t="n">
-        <v>838.7359475699621</v>
+        <v>855.8756625438007</v>
       </c>
       <c r="U25" t="n">
-        <v>838.7359475699621</v>
+        <v>855.8756625438007</v>
       </c>
       <c r="V25" t="n">
-        <v>838.7359475699621</v>
+        <v>855.8756625438007</v>
       </c>
       <c r="W25" t="n">
-        <v>838.7359475699621</v>
+        <v>855.8756625438007</v>
       </c>
       <c r="X25" t="n">
-        <v>610.7463966719448</v>
+        <v>632.8007142748297</v>
       </c>
       <c r="Y25" t="n">
-        <v>610.7463966719448</v>
+        <v>412.0081351312996</v>
       </c>
     </row>
     <row r="26">
@@ -6200,43 +6200,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>864.8486898304059</v>
+        <v>1019.934050672889</v>
       </c>
       <c r="C26" t="n">
-        <v>864.8486898304059</v>
+        <v>650.9715337324776</v>
       </c>
       <c r="D26" t="n">
-        <v>864.8486898304059</v>
+        <v>650.9715337324776</v>
       </c>
       <c r="E26" t="n">
-        <v>479.0604372321617</v>
+        <v>265.1832811342334</v>
       </c>
       <c r="F26" t="n">
-        <v>479.0604372321617</v>
+        <v>265.1832811342334</v>
       </c>
       <c r="G26" t="n">
-        <v>61.42348737315296</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="H26" t="n">
-        <v>61.42348737315296</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="I26" t="n">
-        <v>61.42348737315296</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="J26" t="n">
-        <v>204.380968864103</v>
+        <v>204.3809688641032</v>
       </c>
       <c r="K26" t="n">
-        <v>539.3819799625987</v>
+        <v>539.381979962599</v>
       </c>
       <c r="L26" t="n">
-        <v>1007.256984588248</v>
+        <v>1007.256984588249</v>
       </c>
       <c r="M26" t="n">
         <v>1544.464622569331</v>
       </c>
       <c r="N26" t="n">
-        <v>2075.732844220428</v>
+        <v>2075.732844220429</v>
       </c>
       <c r="O26" t="n">
         <v>2532.206723101795</v>
@@ -6248,28 +6248,28 @@
         <v>3071.174368657648</v>
       </c>
       <c r="R26" t="n">
-        <v>3036.677688282708</v>
+        <v>3071.174368657648</v>
       </c>
       <c r="S26" t="n">
-        <v>2867.948482804785</v>
+        <v>3071.174368657648</v>
       </c>
       <c r="T26" t="n">
-        <v>2650.744637734724</v>
+        <v>2853.970523587588</v>
       </c>
       <c r="U26" t="n">
-        <v>2397.00900103224</v>
+        <v>2853.970523587588</v>
       </c>
       <c r="V26" t="n">
-        <v>2065.946113688669</v>
+        <v>2522.907636244017</v>
       </c>
       <c r="W26" t="n">
-        <v>1713.177458418555</v>
+        <v>2170.138980973903</v>
       </c>
       <c r="X26" t="n">
-        <v>1339.711700157475</v>
+        <v>1796.673222712823</v>
       </c>
       <c r="Y26" t="n">
-        <v>949.5723681816637</v>
+        <v>1406.533890737011</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>117.4448884899775</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42348737315296</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="J27" t="n">
-        <v>61.42348737315296</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="K27" t="n">
-        <v>82.52827080909614</v>
+        <v>344.348855451549</v>
       </c>
       <c r="L27" t="n">
-        <v>524.3607396363435</v>
+        <v>786.1813242787963</v>
       </c>
       <c r="M27" t="n">
-        <v>1091.93761250683</v>
+        <v>1353.758197149283</v>
       </c>
       <c r="N27" t="n">
-        <v>1690.24356971196</v>
+        <v>1952.064154354413</v>
       </c>
       <c r="O27" t="n">
-        <v>2171.160953747066</v>
+        <v>2432.981538389518</v>
       </c>
       <c r="P27" t="n">
-        <v>2540.136485183354</v>
+        <v>2487.968845846993</v>
       </c>
       <c r="Q27" t="n">
         <v>2681.921447781306</v>
@@ -6358,31 +6358,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>215.815518884131</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="C28" t="n">
-        <v>215.815518884131</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="D28" t="n">
-        <v>209.3365809555461</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="E28" t="n">
-        <v>61.42348737315296</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="F28" t="n">
-        <v>61.42348737315296</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="G28" t="n">
-        <v>61.42348737315296</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="H28" t="n">
-        <v>61.42348737315296</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="I28" t="n">
-        <v>61.42348737315296</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="J28" t="n">
-        <v>61.42348737315296</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="K28" t="n">
         <v>134.420969355444</v>
@@ -6403,31 +6403,31 @@
         <v>855.8756625438007</v>
       </c>
       <c r="Q28" t="n">
-        <v>838.7359475699621</v>
+        <v>855.8756625438007</v>
       </c>
       <c r="R28" t="n">
-        <v>697.1817384490903</v>
+        <v>855.8756625438007</v>
       </c>
       <c r="S28" t="n">
-        <v>697.1817384490903</v>
+        <v>855.8756625438007</v>
       </c>
       <c r="T28" t="n">
-        <v>470.5000070900179</v>
+        <v>855.8756625438007</v>
       </c>
       <c r="U28" t="n">
-        <v>470.5000070900179</v>
+        <v>605.5251456160005</v>
       </c>
       <c r="V28" t="n">
-        <v>215.815518884131</v>
+        <v>350.8406574101136</v>
       </c>
       <c r="W28" t="n">
-        <v>215.815518884131</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="X28" t="n">
-        <v>215.815518884131</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="Y28" t="n">
-        <v>215.815518884131</v>
+        <v>61.42348737315297</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2319.014960875015</v>
+        <v>1202.64121536801</v>
       </c>
       <c r="C29" t="n">
-        <v>2098.812349810831</v>
+        <v>833.678698427598</v>
       </c>
       <c r="D29" t="n">
-        <v>1740.54665120408</v>
+        <v>475.4129998208475</v>
       </c>
       <c r="E29" t="n">
-        <v>1354.758398605836</v>
+        <v>89.62474722260322</v>
       </c>
       <c r="F29" t="n">
-        <v>943.7724938162283</v>
+        <v>89.62474722260322</v>
       </c>
       <c r="G29" t="n">
-        <v>526.1355439572196</v>
+        <v>89.62474722260322</v>
       </c>
       <c r="H29" t="n">
-        <v>202.2882609723438</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="I29" t="n">
-        <v>61.42348737315296</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="J29" t="n">
         <v>204.3809688641031</v>
@@ -6470,7 +6470,7 @@
         <v>1007.256984588249</v>
       </c>
       <c r="M29" t="n">
-        <v>1544.464622569331</v>
+        <v>1544.464622569332</v>
       </c>
       <c r="N29" t="n">
         <v>2075.732844220429</v>
@@ -6500,13 +6500,13 @@
         <v>2705.614800939137</v>
       </c>
       <c r="W29" t="n">
-        <v>2705.614800939137</v>
+        <v>2352.846145669023</v>
       </c>
       <c r="X29" t="n">
-        <v>2705.614800939137</v>
+        <v>1979.380387407943</v>
       </c>
       <c r="Y29" t="n">
-        <v>2705.614800939137</v>
+        <v>1589.241055432131</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6537,28 @@
         <v>117.4448884899775</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42348737315296</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="J30" t="n">
-        <v>61.42348737315296</v>
+        <v>114.5672052447638</v>
       </c>
       <c r="K30" t="n">
-        <v>344.348855451549</v>
+        <v>397.4925733231598</v>
       </c>
       <c r="L30" t="n">
-        <v>786.1813242787963</v>
+        <v>472.1931002999826</v>
       </c>
       <c r="M30" t="n">
-        <v>1353.758197149283</v>
+        <v>1039.769973170469</v>
       </c>
       <c r="N30" t="n">
-        <v>1952.064154354413</v>
+        <v>1638.075930375599</v>
       </c>
       <c r="O30" t="n">
-        <v>2432.981538389518</v>
+        <v>2118.993314410705</v>
       </c>
       <c r="P30" t="n">
-        <v>2681.921447781306</v>
+        <v>2487.968845846993</v>
       </c>
       <c r="Q30" t="n">
         <v>2681.921447781306</v>
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>534.6345748530015</v>
+        <v>378.1897638619885</v>
       </c>
       <c r="C31" t="n">
-        <v>534.6345748530015</v>
+        <v>378.1897638619885</v>
       </c>
       <c r="D31" t="n">
-        <v>534.6345748530015</v>
+        <v>378.1897638619885</v>
       </c>
       <c r="E31" t="n">
-        <v>386.7214812706084</v>
+        <v>230.2766702795954</v>
       </c>
       <c r="F31" t="n">
-        <v>386.7214812706084</v>
+        <v>230.2766702795954</v>
       </c>
       <c r="G31" t="n">
-        <v>217.868298364166</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="H31" t="n">
-        <v>61.42348737315296</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="I31" t="n">
-        <v>61.42348737315296</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="J31" t="n">
-        <v>61.42348737315296</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="K31" t="n">
         <v>134.420969355444</v>
@@ -6649,22 +6649,22 @@
         <v>855.8756625438007</v>
       </c>
       <c r="T31" t="n">
-        <v>629.1939311847283</v>
+        <v>667.6069338989491</v>
       </c>
       <c r="U31" t="n">
-        <v>534.6345748530015</v>
+        <v>667.6069338989491</v>
       </c>
       <c r="V31" t="n">
-        <v>534.6345748530015</v>
+        <v>667.6069338989491</v>
       </c>
       <c r="W31" t="n">
-        <v>534.6345748530015</v>
+        <v>378.1897638619885</v>
       </c>
       <c r="X31" t="n">
-        <v>534.6345748530015</v>
+        <v>378.1897638619885</v>
       </c>
       <c r="Y31" t="n">
-        <v>534.6345748530015</v>
+        <v>378.1897638619885</v>
       </c>
     </row>
     <row r="32">
@@ -6674,37 +6674,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2109.509168144492</v>
+        <v>1920.969438356635</v>
       </c>
       <c r="C32" t="n">
-        <v>1740.54665120408</v>
+        <v>1552.006921416223</v>
       </c>
       <c r="D32" t="n">
-        <v>1740.54665120408</v>
+        <v>1552.006921416223</v>
       </c>
       <c r="E32" t="n">
-        <v>1354.758398605836</v>
+        <v>1166.218668817979</v>
       </c>
       <c r="F32" t="n">
-        <v>943.7724938162283</v>
+        <v>755.2327640283711</v>
       </c>
       <c r="G32" t="n">
-        <v>526.1355439572196</v>
+        <v>337.5958141693624</v>
       </c>
       <c r="H32" t="n">
-        <v>202.2882609723438</v>
+        <v>61.42348737315296</v>
       </c>
       <c r="I32" t="n">
         <v>61.42348737315296</v>
       </c>
       <c r="J32" t="n">
-        <v>204.3809688641027</v>
+        <v>204.3809688641031</v>
       </c>
       <c r="K32" t="n">
-        <v>539.3819799625985</v>
+        <v>539.381979962599</v>
       </c>
       <c r="L32" t="n">
-        <v>1007.256984588248</v>
+        <v>1007.256984588249</v>
       </c>
       <c r="M32" t="n">
         <v>1544.464622569331</v>
@@ -6722,28 +6722,28 @@
         <v>3071.174368657648</v>
       </c>
       <c r="R32" t="n">
-        <v>3036.677688282708</v>
+        <v>3071.174368657648</v>
       </c>
       <c r="S32" t="n">
-        <v>2867.948482804785</v>
+        <v>3071.174368657648</v>
       </c>
       <c r="T32" t="n">
-        <v>2650.744637734724</v>
+        <v>3071.174368657648</v>
       </c>
       <c r="U32" t="n">
-        <v>2397.00900103224</v>
+        <v>3071.174368657648</v>
       </c>
       <c r="V32" t="n">
-        <v>2109.509168144492</v>
+        <v>3071.174368657648</v>
       </c>
       <c r="W32" t="n">
-        <v>2109.509168144492</v>
+        <v>3071.174368657648</v>
       </c>
       <c r="X32" t="n">
-        <v>2109.509168144492</v>
+        <v>2697.708610396568</v>
       </c>
       <c r="Y32" t="n">
-        <v>2109.509168144492</v>
+        <v>2307.569278420756</v>
       </c>
     </row>
     <row r="33">
@@ -6780,22 +6780,22 @@
         <v>61.42348737315296</v>
       </c>
       <c r="K33" t="n">
-        <v>82.52827080909614</v>
+        <v>224.3132334070477</v>
       </c>
       <c r="L33" t="n">
-        <v>524.3607396363435</v>
+        <v>666.1457022342951</v>
       </c>
       <c r="M33" t="n">
-        <v>1091.93761250683</v>
+        <v>1233.722575104782</v>
       </c>
       <c r="N33" t="n">
-        <v>1690.24356971196</v>
+        <v>1832.028532309912</v>
       </c>
       <c r="O33" t="n">
-        <v>2171.160953747066</v>
+        <v>2312.945916345017</v>
       </c>
       <c r="P33" t="n">
-        <v>2540.136485183354</v>
+        <v>2681.921447781306</v>
       </c>
       <c r="Q33" t="n">
         <v>2681.921447781306</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2276.722193487</v>
+        <v>3071.174368657648</v>
       </c>
       <c r="C34" t="n">
-        <v>2276.722193487</v>
+        <v>3071.174368657648</v>
       </c>
       <c r="D34" t="n">
-        <v>2276.722193487</v>
+        <v>3064.033633047418</v>
       </c>
       <c r="E34" t="n">
-        <v>2276.722193487</v>
+        <v>2916.120539465025</v>
       </c>
       <c r="F34" t="n">
-        <v>2276.722193487</v>
+        <v>2769.230591967115</v>
       </c>
       <c r="G34" t="n">
-        <v>2276.722193487</v>
+        <v>2600.377409060673</v>
       </c>
       <c r="H34" t="n">
-        <v>2276.722193487</v>
+        <v>2443.932598069659</v>
       </c>
       <c r="I34" t="n">
-        <v>2276.722193487</v>
+        <v>2312.012870905444</v>
       </c>
       <c r="J34" t="n">
         <v>2276.722193487</v>
@@ -6886,22 +6886,22 @@
         <v>3071.174368657648</v>
       </c>
       <c r="T34" t="n">
-        <v>2844.492637298576</v>
+        <v>3071.174368657648</v>
       </c>
       <c r="U34" t="n">
-        <v>2555.327024263428</v>
+        <v>3071.174368657648</v>
       </c>
       <c r="V34" t="n">
-        <v>2300.642536057542</v>
+        <v>3071.174368657648</v>
       </c>
       <c r="W34" t="n">
-        <v>2276.722193487</v>
+        <v>3071.174368657648</v>
       </c>
       <c r="X34" t="n">
-        <v>2276.722193487</v>
+        <v>3071.174368657648</v>
       </c>
       <c r="Y34" t="n">
-        <v>2276.722193487</v>
+        <v>3071.174368657648</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1941.6665413476</v>
+        <v>1957.94757621164</v>
       </c>
       <c r="C35" t="n">
-        <v>1572.704024407188</v>
+        <v>1957.94757621164</v>
       </c>
       <c r="D35" t="n">
-        <v>1214.438325800438</v>
+        <v>1599.681877604889</v>
       </c>
       <c r="E35" t="n">
         <v>1213.893625006645</v>
@@ -6929,19 +6929,19 @@
         <v>385.2707703580288</v>
       </c>
       <c r="H35" t="n">
-        <v>61.42348737315296</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="I35" t="n">
-        <v>61.42348737315296</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="J35" t="n">
-        <v>204.3809688641027</v>
+        <v>204.3809688641031</v>
       </c>
       <c r="K35" t="n">
-        <v>539.3819799625985</v>
+        <v>539.381979962599</v>
       </c>
       <c r="L35" t="n">
-        <v>1007.256984588248</v>
+        <v>1007.256984588249</v>
       </c>
       <c r="M35" t="n">
         <v>1544.464622569331</v>
@@ -6959,28 +6959,28 @@
         <v>3071.174368657648</v>
       </c>
       <c r="R35" t="n">
-        <v>3071.174368657648</v>
+        <v>3036.677688282708</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.174368657648</v>
+        <v>2867.948482804785</v>
       </c>
       <c r="T35" t="n">
-        <v>3071.174368657648</v>
+        <v>2650.744637734725</v>
       </c>
       <c r="U35" t="n">
-        <v>3071.174368657648</v>
+        <v>2397.009001032241</v>
       </c>
       <c r="V35" t="n">
-        <v>3071.174368657648</v>
+        <v>2065.94611368867</v>
       </c>
       <c r="W35" t="n">
-        <v>2718.405713387534</v>
+        <v>1957.94757621164</v>
       </c>
       <c r="X35" t="n">
-        <v>2718.405713387534</v>
+        <v>1957.94757621164</v>
       </c>
       <c r="Y35" t="n">
-        <v>2328.266381411722</v>
+        <v>1957.94757621164</v>
       </c>
     </row>
     <row r="36">
@@ -7011,16 +7011,16 @@
         <v>117.4448884899775</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42348737315296</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="J36" t="n">
-        <v>61.42348737315296</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="K36" t="n">
-        <v>82.52827080909614</v>
+        <v>344.348855451549</v>
       </c>
       <c r="L36" t="n">
-        <v>472.1931002999826</v>
+        <v>786.1813242787963</v>
       </c>
       <c r="M36" t="n">
         <v>1039.769973170469</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2276.722193487</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="C37" t="n">
-        <v>2276.722193487</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="D37" t="n">
-        <v>2276.722193487</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="E37" t="n">
-        <v>2276.722193487</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="F37" t="n">
-        <v>2276.722193487</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="G37" t="n">
-        <v>2276.722193487</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="H37" t="n">
-        <v>2276.722193487</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="I37" t="n">
-        <v>2276.722193487</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="J37" t="n">
-        <v>2276.722193487</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="K37" t="n">
-        <v>2349.719675469291</v>
+        <v>134.420969355444</v>
       </c>
       <c r="L37" t="n">
-        <v>2498.657754856165</v>
+        <v>283.3590487423176</v>
       </c>
       <c r="M37" t="n">
-        <v>2666.081200004475</v>
+        <v>450.7824938906278</v>
       </c>
       <c r="N37" t="n">
-        <v>2834.958306258811</v>
+        <v>619.6596001449642</v>
       </c>
       <c r="O37" t="n">
-        <v>2974.927351921911</v>
+        <v>759.6286458080639</v>
       </c>
       <c r="P37" t="n">
-        <v>3071.174368657648</v>
+        <v>855.8756625438007</v>
       </c>
       <c r="Q37" t="n">
-        <v>3071.174368657648</v>
+        <v>855.8756625438007</v>
       </c>
       <c r="R37" t="n">
-        <v>3071.174368657648</v>
+        <v>855.8756625438007</v>
       </c>
       <c r="S37" t="n">
-        <v>3071.174368657648</v>
+        <v>855.8756625438007</v>
       </c>
       <c r="T37" t="n">
-        <v>3071.174368657648</v>
+        <v>855.8756625438007</v>
       </c>
       <c r="U37" t="n">
-        <v>3071.174368657648</v>
+        <v>605.5251456160005</v>
       </c>
       <c r="V37" t="n">
-        <v>3071.174368657648</v>
+        <v>350.8406574101136</v>
       </c>
       <c r="W37" t="n">
-        <v>2781.757198620687</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="X37" t="n">
-        <v>2553.76764772267</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="Y37" t="n">
-        <v>2332.97506857914</v>
+        <v>61.42348737315297</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>948.905578665526</v>
+        <v>1957.94757621164</v>
       </c>
       <c r="C38" t="n">
-        <v>948.905578665526</v>
+        <v>1957.94757621164</v>
       </c>
       <c r="D38" t="n">
-        <v>590.6398800587756</v>
+        <v>1599.681877604889</v>
       </c>
       <c r="E38" t="n">
-        <v>590.6398800587756</v>
+        <v>1213.893625006645</v>
       </c>
       <c r="F38" t="n">
-        <v>590.6398800587756</v>
+        <v>802.9077202170374</v>
       </c>
       <c r="G38" t="n">
-        <v>526.1355439572196</v>
+        <v>385.2707703580288</v>
       </c>
       <c r="H38" t="n">
-        <v>202.2882609723438</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="I38" t="n">
         <v>61.42348737315297</v>
@@ -7175,16 +7175,16 @@
         <v>204.3809688641031</v>
       </c>
       <c r="K38" t="n">
-        <v>539.3819799625992</v>
+        <v>539.3819799625985</v>
       </c>
       <c r="L38" t="n">
-        <v>1007.256984588249</v>
+        <v>1007.256984588248</v>
       </c>
       <c r="M38" t="n">
-        <v>1544.464622569332</v>
+        <v>1544.464622569331</v>
       </c>
       <c r="N38" t="n">
-        <v>2075.73284422043</v>
+        <v>2075.732844220429</v>
       </c>
       <c r="O38" t="n">
         <v>2532.206723101796</v>
@@ -7196,28 +7196,28 @@
         <v>3071.174368657649</v>
       </c>
       <c r="R38" t="n">
-        <v>3036.677688282708</v>
+        <v>3071.174368657649</v>
       </c>
       <c r="S38" t="n">
-        <v>3036.677688282708</v>
+        <v>3071.174368657649</v>
       </c>
       <c r="T38" t="n">
-        <v>3036.677688282708</v>
+        <v>2932.885432233506</v>
       </c>
       <c r="U38" t="n">
-        <v>2782.942051580224</v>
+        <v>2679.149795531022</v>
       </c>
       <c r="V38" t="n">
-        <v>2451.879164236654</v>
+        <v>2348.086908187452</v>
       </c>
       <c r="W38" t="n">
-        <v>2099.110508966539</v>
+        <v>2348.086908187452</v>
       </c>
       <c r="X38" t="n">
-        <v>1725.64475070546</v>
+        <v>2348.086908187452</v>
       </c>
       <c r="Y38" t="n">
-        <v>1335.505418729648</v>
+        <v>1957.94757621164</v>
       </c>
     </row>
     <row r="39">
@@ -7254,22 +7254,22 @@
         <v>61.42348737315297</v>
       </c>
       <c r="K39" t="n">
-        <v>224.3132334070475</v>
+        <v>82.52827080909618</v>
       </c>
       <c r="L39" t="n">
-        <v>666.1457022342948</v>
+        <v>524.3607396363435</v>
       </c>
       <c r="M39" t="n">
-        <v>1233.722575104781</v>
+        <v>1091.93761250683</v>
       </c>
       <c r="N39" t="n">
-        <v>1832.028532309912</v>
+        <v>1690.24356971196</v>
       </c>
       <c r="O39" t="n">
-        <v>2312.945916345017</v>
+        <v>2171.160953747066</v>
       </c>
       <c r="P39" t="n">
-        <v>2681.921447781306</v>
+        <v>2540.136485183354</v>
       </c>
       <c r="Q39" t="n">
         <v>2681.921447781306</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>211.5401267854887</v>
+        <v>700.821833351178</v>
       </c>
       <c r="C40" t="n">
-        <v>211.5401267854887</v>
+        <v>700.821833351178</v>
       </c>
       <c r="D40" t="n">
-        <v>61.42348737315297</v>
+        <v>700.821833351178</v>
       </c>
       <c r="E40" t="n">
-        <v>61.42348737315297</v>
+        <v>700.821833351178</v>
       </c>
       <c r="F40" t="n">
-        <v>61.42348737315297</v>
+        <v>553.9318858532677</v>
       </c>
       <c r="G40" t="n">
-        <v>61.42348737315297</v>
+        <v>385.0787029468253</v>
       </c>
       <c r="H40" t="n">
-        <v>61.42348737315297</v>
+        <v>228.6338919558123</v>
       </c>
       <c r="I40" t="n">
-        <v>61.42348737315297</v>
+        <v>96.7141647915967</v>
       </c>
       <c r="J40" t="n">
         <v>61.42348737315297</v>
@@ -7351,31 +7351,31 @@
         <v>855.8756625438008</v>
       </c>
       <c r="Q40" t="n">
-        <v>855.8756625438008</v>
+        <v>838.7359475699623</v>
       </c>
       <c r="R40" t="n">
-        <v>855.8756625438008</v>
+        <v>700.821833351178</v>
       </c>
       <c r="S40" t="n">
-        <v>855.8756625438008</v>
+        <v>700.821833351178</v>
       </c>
       <c r="T40" t="n">
-        <v>855.8756625438008</v>
+        <v>700.821833351178</v>
       </c>
       <c r="U40" t="n">
-        <v>855.8756625438008</v>
+        <v>700.821833351178</v>
       </c>
       <c r="V40" t="n">
-        <v>855.8756625438008</v>
+        <v>700.821833351178</v>
       </c>
       <c r="W40" t="n">
-        <v>566.4584925068402</v>
+        <v>700.821833351178</v>
       </c>
       <c r="X40" t="n">
-        <v>566.4584925068402</v>
+        <v>700.821833351178</v>
       </c>
       <c r="Y40" t="n">
-        <v>393.1885916157284</v>
+        <v>700.821833351178</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1374.208380532417</v>
+        <v>731.7017335954656</v>
       </c>
       <c r="C41" t="n">
-        <v>1005.245863592005</v>
+        <v>731.7017335954656</v>
       </c>
       <c r="D41" t="n">
-        <v>646.9801649852545</v>
+        <v>373.4360349887151</v>
       </c>
       <c r="E41" t="n">
-        <v>646.9801649852545</v>
+        <v>373.4360349887151</v>
       </c>
       <c r="F41" t="n">
-        <v>619.9252108313525</v>
+        <v>373.4360349887151</v>
       </c>
       <c r="G41" t="n">
-        <v>202.2882609723438</v>
+        <v>373.4360349887151</v>
       </c>
       <c r="H41" t="n">
         <v>202.2882609723438</v>
@@ -7409,52 +7409,52 @@
         <v>61.42348737315297</v>
       </c>
       <c r="J41" t="n">
-        <v>204.380968864103</v>
+        <v>204.3809688641034</v>
       </c>
       <c r="K41" t="n">
-        <v>539.3819799625987</v>
+        <v>539.3819799625992</v>
       </c>
       <c r="L41" t="n">
         <v>1007.256984588249</v>
       </c>
       <c r="M41" t="n">
-        <v>1544.464622569331</v>
+        <v>1544.464622569332</v>
       </c>
       <c r="N41" t="n">
         <v>2075.732844220429</v>
       </c>
       <c r="O41" t="n">
-        <v>2532.206723101795</v>
+        <v>2532.206723101796</v>
       </c>
       <c r="P41" t="n">
-        <v>2884.122234923072</v>
+        <v>2884.122234923073</v>
       </c>
       <c r="Q41" t="n">
         <v>3071.174368657649</v>
       </c>
       <c r="R41" t="n">
-        <v>3071.174368657649</v>
+        <v>3036.677688282708</v>
       </c>
       <c r="S41" t="n">
-        <v>2902.445163179726</v>
+        <v>3036.677688282708</v>
       </c>
       <c r="T41" t="n">
-        <v>2685.241318109665</v>
+        <v>2819.473843212648</v>
       </c>
       <c r="U41" t="n">
-        <v>2431.505681407181</v>
+        <v>2565.738206510164</v>
       </c>
       <c r="V41" t="n">
-        <v>2100.442794063611</v>
+        <v>2234.675319166593</v>
       </c>
       <c r="W41" t="n">
-        <v>1747.674138793496</v>
+        <v>1881.906663896479</v>
       </c>
       <c r="X41" t="n">
-        <v>1374.208380532417</v>
+        <v>1508.440905635399</v>
       </c>
       <c r="Y41" t="n">
-        <v>1374.208380532417</v>
+        <v>1118.301573659587</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7488,25 @@
         <v>61.42348737315297</v>
       </c>
       <c r="J42" t="n">
-        <v>152.8746043093674</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="K42" t="n">
-        <v>173.9793877453106</v>
+        <v>344.348855451549</v>
       </c>
       <c r="L42" t="n">
-        <v>615.811856572558</v>
+        <v>786.1813242787964</v>
       </c>
       <c r="M42" t="n">
-        <v>1183.388729443044</v>
+        <v>1353.758197149283</v>
       </c>
       <c r="N42" t="n">
-        <v>1781.694686648175</v>
+        <v>1952.064154354413</v>
       </c>
       <c r="O42" t="n">
-        <v>2262.61207068328</v>
+        <v>2432.981538389519</v>
       </c>
       <c r="P42" t="n">
-        <v>2631.587602119569</v>
+        <v>2681.921447781306</v>
       </c>
       <c r="Q42" t="n">
         <v>2681.921447781306</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>340.0283181495814</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="C43" t="n">
-        <v>340.0283181495814</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="D43" t="n">
-        <v>340.0283181495814</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="E43" t="n">
-        <v>340.0283181495814</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="F43" t="n">
-        <v>340.0283181495814</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="G43" t="n">
-        <v>171.175135243139</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="H43" t="n">
-        <v>96.7141647915967</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="I43" t="n">
-        <v>96.7141647915967</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="J43" t="n">
         <v>61.42348737315297</v>
@@ -7597,22 +7597,22 @@
         <v>855.8756625438008</v>
       </c>
       <c r="T43" t="n">
-        <v>629.1939311847284</v>
+        <v>855.8756625438008</v>
       </c>
       <c r="U43" t="n">
-        <v>340.0283181495814</v>
+        <v>826.3177247595305</v>
       </c>
       <c r="V43" t="n">
-        <v>340.0283181495814</v>
+        <v>571.6332365536437</v>
       </c>
       <c r="W43" t="n">
-        <v>340.0283181495814</v>
+        <v>282.2160665166831</v>
       </c>
       <c r="X43" t="n">
-        <v>340.0283181495814</v>
+        <v>282.2160665166831</v>
       </c>
       <c r="Y43" t="n">
-        <v>340.0283181495814</v>
+        <v>61.42348737315297</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1644.797111560425</v>
+        <v>2294.435196617715</v>
       </c>
       <c r="C44" t="n">
-        <v>1275.834594620014</v>
+        <v>1925.472679677303</v>
       </c>
       <c r="D44" t="n">
-        <v>1275.834594620014</v>
+        <v>1599.681877604889</v>
       </c>
       <c r="E44" t="n">
-        <v>890.0463420217693</v>
+        <v>1213.893625006645</v>
       </c>
       <c r="F44" t="n">
-        <v>479.0604372321617</v>
+        <v>802.9077202170374</v>
       </c>
       <c r="G44" t="n">
-        <v>61.42348737315297</v>
+        <v>385.2707703580288</v>
       </c>
       <c r="H44" t="n">
         <v>61.42348737315297</v>
@@ -7646,10 +7646,10 @@
         <v>61.42348737315297</v>
       </c>
       <c r="J44" t="n">
-        <v>204.3809688641034</v>
+        <v>204.380968864103</v>
       </c>
       <c r="K44" t="n">
-        <v>539.3819799625992</v>
+        <v>539.3819799625987</v>
       </c>
       <c r="L44" t="n">
         <v>1007.256984588249</v>
@@ -7670,28 +7670,28 @@
         <v>3071.174368657649</v>
       </c>
       <c r="R44" t="n">
-        <v>3036.677688282708</v>
+        <v>3071.174368657649</v>
       </c>
       <c r="S44" t="n">
-        <v>3036.677688282708</v>
+        <v>3071.174368657649</v>
       </c>
       <c r="T44" t="n">
-        <v>3036.677688282708</v>
+        <v>3071.174368657649</v>
       </c>
       <c r="U44" t="n">
-        <v>3036.677688282708</v>
+        <v>3071.174368657649</v>
       </c>
       <c r="V44" t="n">
-        <v>2795.002041861439</v>
+        <v>3071.174368657649</v>
       </c>
       <c r="W44" t="n">
-        <v>2795.002041861439</v>
+        <v>3071.174368657649</v>
       </c>
       <c r="X44" t="n">
-        <v>2421.536283600359</v>
+        <v>3071.174368657649</v>
       </c>
       <c r="Y44" t="n">
-        <v>2031.396951624547</v>
+        <v>2681.035036681837</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7725,25 @@
         <v>61.42348737315297</v>
       </c>
       <c r="J45" t="n">
-        <v>152.8746043093674</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="K45" t="n">
-        <v>435.7999723877634</v>
+        <v>344.348855451549</v>
       </c>
       <c r="L45" t="n">
-        <v>877.6324412150108</v>
+        <v>786.1813242787964</v>
       </c>
       <c r="M45" t="n">
-        <v>1445.209314085497</v>
+        <v>1353.758197149283</v>
       </c>
       <c r="N45" t="n">
-        <v>1638.075930375599</v>
+        <v>1952.064154354413</v>
       </c>
       <c r="O45" t="n">
-        <v>2118.993314410705</v>
+        <v>2432.981538389519</v>
       </c>
       <c r="P45" t="n">
-        <v>2487.968845846993</v>
+        <v>2681.921447781306</v>
       </c>
       <c r="Q45" t="n">
         <v>2681.921447781306</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2600.377409060673</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="C46" t="n">
-        <v>2600.377409060673</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="D46" t="n">
-        <v>2600.377409060673</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="E46" t="n">
-        <v>2600.377409060673</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="F46" t="n">
-        <v>2600.377409060673</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="G46" t="n">
-        <v>2600.377409060673</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="H46" t="n">
-        <v>2443.93259806966</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="I46" t="n">
-        <v>2312.012870905445</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="J46" t="n">
-        <v>2276.722193487001</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="K46" t="n">
-        <v>2349.719675469292</v>
+        <v>134.420969355444</v>
       </c>
       <c r="L46" t="n">
-        <v>2498.657754856165</v>
+        <v>283.3590487423176</v>
       </c>
       <c r="M46" t="n">
-        <v>2666.081200004476</v>
+        <v>450.782493890628</v>
       </c>
       <c r="N46" t="n">
-        <v>2834.958306258812</v>
+        <v>619.6596001449643</v>
       </c>
       <c r="O46" t="n">
-        <v>2974.927351921912</v>
+        <v>759.628645808064</v>
       </c>
       <c r="P46" t="n">
-        <v>3071.174368657649</v>
+        <v>855.8756625438008</v>
       </c>
       <c r="Q46" t="n">
-        <v>3054.03465368381</v>
+        <v>855.8756625438008</v>
       </c>
       <c r="R46" t="n">
-        <v>2912.480444562938</v>
+        <v>714.3214534229289</v>
       </c>
       <c r="S46" t="n">
-        <v>2700.747162017162</v>
+        <v>714.3214534229289</v>
       </c>
       <c r="T46" t="n">
-        <v>2600.377409060673</v>
+        <v>544.0975264770572</v>
       </c>
       <c r="U46" t="n">
-        <v>2600.377409060673</v>
+        <v>544.0975264770572</v>
       </c>
       <c r="V46" t="n">
-        <v>2600.377409060673</v>
+        <v>289.4130382711703</v>
       </c>
       <c r="W46" t="n">
-        <v>2600.377409060673</v>
+        <v>289.4130382711703</v>
       </c>
       <c r="X46" t="n">
-        <v>2600.377409060673</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="Y46" t="n">
-        <v>2600.377409060673</v>
+        <v>61.42348737315297</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,10 +8064,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>422.286579409329</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8541,10 +8541,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8769,7 +8769,7 @@
         <v>33.71616974827307</v>
       </c>
       <c r="K12" t="n">
-        <v>143.2171339373248</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8784,7 +8784,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>197.2146655646838</v>
       </c>
       <c r="Q12" t="n">
         <v>14.16556861028094</v>
@@ -9006,7 +9006,7 @@
         <v>33.71616974827307</v>
       </c>
       <c r="K15" t="n">
-        <v>143.2171339373248</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9021,7 +9021,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>197.2146655646838</v>
       </c>
       <c r="Q15" t="n">
         <v>14.16556861028094</v>
@@ -9240,16 +9240,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>33.71616974827307</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>318.1457601152158</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>56.17037595704227</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9480,7 +9480,7 @@
         <v>33.71616974827307</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>143.2171339373248</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9492,13 +9492,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>76.70249707590753</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>14.16556861028094</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9872,13 +9872,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504502</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9954,7 +9954,7 @@
         <v>33.71616974827307</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9969,10 +9969,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>1.302946439115658</v>
       </c>
       <c r="Q27" t="n">
-        <v>157.3827025476057</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>33.71616974827307</v>
+        <v>87.39669285091031</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10206,10 +10206,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>197.2146655646838</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>14.16556861028094</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,7 +10428,7 @@
         <v>33.71616974827307</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>143.2171339373248</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>157.3827025476057</v>
+        <v>14.16556861028094</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,13 +10665,13 @@
         <v>33.71616974827307</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>318.1457601152158</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>148.545241549178</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10902,7 +10902,7 @@
         <v>33.71616974827305</v>
       </c>
       <c r="K39" t="n">
-        <v>143.2171339373246</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>14.1655686102809</v>
+        <v>157.3827025476057</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720742</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11078,7 +11078,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599052</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>33.71616974827305</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11154,10 +11154,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>197.2146655646833</v>
       </c>
       <c r="Q42" t="n">
-        <v>65.00783695546988</v>
+        <v>14.1655686102809</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720742</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928331</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>33.71616974827305</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11385,16 +11385,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>69.80768655059566</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>197.2146655646833</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>14.1655686102809</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23258,25 +23258,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>80.60997858734993</v>
       </c>
       <c r="G11" t="n">
-        <v>391.0962889590141</v>
+        <v>413.4605803604186</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>320.608810155027</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>139.4561258631989</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,19 +23306,19 @@
         <v>34.15171357119078</v>
       </c>
       <c r="S11" t="n">
-        <v>167.0419134231436</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>215.03180661936</v>
       </c>
       <c r="U11" t="n">
-        <v>251.1982803354592</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23437,7 +23437,7 @@
         <v>130.6005298925735</v>
       </c>
       <c r="J13" t="n">
-        <v>34.9377706442593</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,25 +23458,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>16.96831782410013</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>140.1386670296631</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>209.6159497203185</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>224.4149140454817</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>38.4269451462734</v>
+        <v>125.8419227496771</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>378.9567984907561</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.4605803604186</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>320.608810155027</v>
       </c>
       <c r="I14" t="n">
-        <v>97.74288566344268</v>
+        <v>139.4561258631989</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>167.0419134231436</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>215.03180661936</v>
       </c>
       <c r="U14" t="n">
         <v>251.1982803354592</v>
@@ -23674,7 +23674,7 @@
         <v>130.6005298925735</v>
       </c>
       <c r="J16" t="n">
-        <v>34.9377706442593</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,28 +23695,28 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>16.96831782410013</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>140.1386670296631</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>209.6159497203185</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>224.4149140454817</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>125.8419227496771</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>11.99895721148258</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23738,19 +23738,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.4605803604186</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>320.608810155027</v>
       </c>
       <c r="I17" t="n">
-        <v>139.4561258631989</v>
+        <v>49.79862126796529</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,16 +23780,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>167.0419134231436</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>215.03180661936</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.1982803354592</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>6.832316958457511</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23938,7 +23938,7 @@
         <v>140.1386670296631</v>
       </c>
       <c r="S19" t="n">
-        <v>209.6159497203185</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>224.4149140454817</v>
@@ -23947,16 +23947,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>38.4269451462734</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>214.4899048948586</v>
       </c>
     </row>
     <row r="20">
@@ -23966,13 +23966,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23981,10 +23981,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.4605803604186</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>136.8504933845959</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24014,25 +24014,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>34.15171357119078</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>167.0419134231436</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>215.03180661936</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.1982803354592</v>
       </c>
       <c r="V20" t="n">
-        <v>17.59813786108487</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24130,16 +24130,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>65.08136245139841</v>
       </c>
       <c r="G22" t="n">
-        <v>167.164651077378</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24148,7 +24148,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>34.9377706442593</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,13 +24169,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>16.96831782410013</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>140.1386670296631</v>
       </c>
       <c r="S22" t="n">
-        <v>14.31164694702903</v>
+        <v>209.6159497203185</v>
       </c>
       <c r="T22" t="n">
         <v>224.4149140454817</v>
@@ -24193,7 +24193,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24203,19 +24203,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>229.7846881129952</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24251,28 +24251,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>34.15171357119078</v>
       </c>
       <c r="S23" t="n">
         <v>167.0419134231436</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>215.03180661936</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.1982803354592</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>176.0644823396544</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>119.0292451703515</v>
+        <v>167.164651077378</v>
       </c>
       <c r="H25" t="n">
         <v>154.8803628811029</v>
@@ -24406,7 +24406,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>16.96831782410013</v>
       </c>
       <c r="R25" t="n">
         <v>140.1386670296631</v>
@@ -24427,10 +24427,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>4.865456602755927</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24440,10 +24440,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>298.8574000957353</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24455,7 +24455,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>211.738384536949</v>
       </c>
       <c r="H26" t="n">
         <v>320.608810155027</v>
@@ -24488,16 +24488,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>34.15171357119078</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>167.0419134231436</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.1982803354592</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24604,10 +24604,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>142.2013244689133</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24643,25 +24643,25 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>16.96831782410013</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>140.1386670296631</v>
       </c>
       <c r="S28" t="n">
         <v>209.6159497203185</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>224.4149140454817</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2739569047956</v>
+        <v>38.4269451462734</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24680,7 +24680,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>147.2723068174653</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24689,16 +24689,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.4605803604186</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>292.6895629040713</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>139.4561258631989</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24740,13 +24740,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>154.8803628811029</v>
       </c>
       <c r="I31" t="n">
         <v>130.6005298925735</v>
@@ -24889,16 +24889,16 @@
         <v>209.6159497203185</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>38.02887268707863</v>
       </c>
       <c r="U31" t="n">
-        <v>192.6601941363861</v>
+        <v>286.2739569047956</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24914,7 +24914,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24932,10 +24932,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>47.19820662677972</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>139.4561258631989</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,28 +24962,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>34.15171357119078</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>167.0419134231436</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>215.03180661936</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.1982803354592</v>
       </c>
       <c r="V32" t="n">
-        <v>43.1274239112642</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25078,25 +25078,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>141.5461447640851</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.164651077378</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>154.8803628811029</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>130.6005298925735</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>34.9377706442593</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25126,16 +25126,16 @@
         <v>209.6159497203185</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>224.4149140454817</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2739569047956</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>262.8418591917546</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25151,16 +25151,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.3911162864067</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25199,28 +25199,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>34.15171357119078</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>167.0419134231436</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>215.03180661936</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.1982803354592</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>242.3224166151532</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>124.141633840719</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25366,19 +25366,19 @@
         <v>224.4149140454817</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2739569047956</v>
+        <v>38.4269451462734</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25388,7 +25388,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25397,19 +25397,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>349.6012876198782</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>139.4561258631989</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,13 +25436,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>34.15171357119075</v>
       </c>
       <c r="S38" t="n">
         <v>167.0419134231436</v>
       </c>
       <c r="T38" t="n">
-        <v>215.03180661936</v>
+        <v>78.12575955945908</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25451,10 +25451,10 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25546,31 +25546,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.164651077378</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>154.8803628811029</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>130.6005298925735</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>34.93777064425929</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,10 +25591,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.96831782410011</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>140.1386670296631</v>
+        <v>3.603693953066738</v>
       </c>
       <c r="S40" t="n">
         <v>209.6159497203184</v>
@@ -25609,13 +25609,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>47.0474514698941</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25625,10 +25625,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25637,13 +25637,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>380.0916411293484</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.4605803604186</v>
       </c>
       <c r="H41" t="n">
-        <v>320.608810155027</v>
+        <v>151.1725138788194</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25673,10 +25673,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>34.15171357119075</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>167.0419134231436</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25694,7 +25694,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25798,16 +25798,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.164651077378</v>
       </c>
       <c r="H43" t="n">
-        <v>81.16400213407603</v>
+        <v>154.8803628811029</v>
       </c>
       <c r="I43" t="n">
         <v>130.6005298925735</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>34.93777064425929</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25837,22 +25837,22 @@
         <v>209.6159497203184</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>224.4149140454817</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>257.011598498368</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25868,7 +25868,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>32.15014756899296</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>320.608810155027</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>139.4561258631989</v>
@@ -25910,7 +25910,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>34.15171357119075</v>
       </c>
       <c r="S44" t="n">
         <v>167.0419134231436</v>
@@ -25922,13 +25922,13 @@
         <v>251.1982803354592</v>
       </c>
       <c r="V44" t="n">
-        <v>88.49336851307771</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26038,13 +26038,13 @@
         <v>167.164651077378</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>154.8803628811029</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>130.6005298925735</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>34.93777064425929</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,28 +26065,28 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>16.96831782410011</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>209.6159497203184</v>
       </c>
       <c r="T46" t="n">
-        <v>125.0488586185577</v>
+        <v>55.8932263690686</v>
       </c>
       <c r="U46" t="n">
         <v>286.2739569047956</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>739208.7219609686</v>
+        <v>739208.7219609688</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>739208.7219609687</v>
+        <v>739208.7219609688</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>739208.7219609686</v>
+        <v>739208.7219609687</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>739208.7219609687</v>
+        <v>739208.7219609686</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>739208.7219609687</v>
+        <v>739208.7219609686</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>739208.7219609687</v>
+        <v>739208.7219609686</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>739208.7219609687</v>
+        <v>739208.7219609685</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>739208.7219609686</v>
+        <v>739208.7219609687</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>739208.7219609686</v>
+        <v>739208.7219609687</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>739208.7219609688</v>
+        <v>739208.7219609687</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>739208.7219609687</v>
+        <v>739208.7219609688</v>
       </c>
     </row>
   </sheetData>
@@ -26317,25 +26317,25 @@
         <v>472099.0176719629</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
-        <v>353371.9571758974</v>
+        <v>353371.9571758975</v>
       </c>
       <c r="F2" t="n">
         <v>353371.9571758975</v>
       </c>
       <c r="G2" t="n">
+        <v>353371.9571758975</v>
+      </c>
+      <c r="H2" t="n">
         <v>353371.9571758974</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>353371.9571758974</v>
+      </c>
+      <c r="J2" t="n">
         <v>353371.9571758976</v>
-      </c>
-      <c r="I2" t="n">
-        <v>353371.9571758976</v>
-      </c>
-      <c r="J2" t="n">
-        <v>353371.9571758975</v>
       </c>
       <c r="K2" t="n">
         <v>353371.9571758974</v>
@@ -26344,13 +26344,13 @@
         <v>353371.9571758974</v>
       </c>
       <c r="M2" t="n">
-        <v>353371.9571758975</v>
+        <v>353371.9571758976</v>
       </c>
       <c r="N2" t="n">
-        <v>353371.9571758973</v>
+        <v>353371.9571758974</v>
       </c>
       <c r="O2" t="n">
-        <v>353371.9571758976</v>
+        <v>353371.9571758974</v>
       </c>
       <c r="P2" t="n">
         <v>353371.9571758974</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>92587.18968571305</v>
+        <v>92587.18968571309</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159802.9695323409</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="C4" t="n">
-        <v>159802.9695323409</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>159802.9695323409</v>
+        <v>156774.9582512227</v>
       </c>
       <c r="E4" t="n">
-        <v>20583.93300505498</v>
+        <v>17661.03997999355</v>
       </c>
       <c r="F4" t="n">
-        <v>20583.93300505498</v>
+        <v>17661.03997999355</v>
       </c>
       <c r="G4" t="n">
-        <v>20583.93300505498</v>
+        <v>17661.03997999355</v>
       </c>
       <c r="H4" t="n">
-        <v>20583.93300505498</v>
+        <v>17661.03997999355</v>
       </c>
       <c r="I4" t="n">
-        <v>20583.93300505498</v>
+        <v>17661.03997999355</v>
       </c>
       <c r="J4" t="n">
-        <v>20583.93300505498</v>
+        <v>17661.03997999355</v>
       </c>
       <c r="K4" t="n">
-        <v>20583.93300505498</v>
+        <v>17661.03997999355</v>
       </c>
       <c r="L4" t="n">
-        <v>20583.93300505498</v>
+        <v>17661.03997999355</v>
       </c>
       <c r="M4" t="n">
-        <v>20583.93300505498</v>
+        <v>17661.03997999355</v>
       </c>
       <c r="N4" t="n">
-        <v>20583.93300505498</v>
+        <v>17661.03997999354</v>
       </c>
       <c r="O4" t="n">
-        <v>20583.93300505498</v>
+        <v>17661.03997999355</v>
       </c>
       <c r="P4" t="n">
-        <v>20583.93300505498</v>
+        <v>17661.03997999355</v>
       </c>
     </row>
     <row r="5">
@@ -26491,16 +26491,16 @@
         <v>56671.40811433502</v>
       </c>
       <c r="J5" t="n">
-        <v>56671.40811433502</v>
+        <v>56671.40811433503</v>
       </c>
       <c r="K5" t="n">
-        <v>56671.40811433502</v>
+        <v>56671.40811433503</v>
       </c>
       <c r="L5" t="n">
         <v>56671.40811433502</v>
       </c>
       <c r="M5" t="n">
-        <v>56671.40811433502</v>
+        <v>56671.40811433503</v>
       </c>
       <c r="N5" t="n">
         <v>56671.40811433504</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-360530.9091383319</v>
+        <v>-357502.8978572137</v>
       </c>
       <c r="C6" t="n">
-        <v>229436.9700762125</v>
+        <v>232464.9813573308</v>
       </c>
       <c r="D6" t="n">
-        <v>229436.9700762126</v>
+        <v>232464.9813573308</v>
       </c>
       <c r="E6" t="n">
-        <v>183529.4263707944</v>
+        <v>186452.3193958558</v>
       </c>
       <c r="F6" t="n">
-        <v>276116.6160565075</v>
+        <v>279039.5090815689</v>
       </c>
       <c r="G6" t="n">
-        <v>276116.6160565074</v>
+        <v>279039.5090815689</v>
       </c>
       <c r="H6" t="n">
-        <v>276116.6160565075</v>
+        <v>279039.5090815689</v>
       </c>
       <c r="I6" t="n">
-        <v>276116.6160565075</v>
+        <v>279039.5090815688</v>
       </c>
       <c r="J6" t="n">
-        <v>99693.39686391455</v>
+        <v>102616.289888976</v>
       </c>
       <c r="K6" t="n">
-        <v>276116.6160565074</v>
+        <v>279039.5090815689</v>
       </c>
       <c r="L6" t="n">
-        <v>276116.6160565074</v>
+        <v>279039.5090815689</v>
       </c>
       <c r="M6" t="n">
-        <v>252814.4672342936</v>
+        <v>255737.3602593552</v>
       </c>
       <c r="N6" t="n">
-        <v>276116.6160565073</v>
+        <v>279039.5090815689</v>
       </c>
       <c r="O6" t="n">
-        <v>276116.6160565076</v>
+        <v>279039.5090815688</v>
       </c>
       <c r="P6" t="n">
-        <v>276116.6160565073</v>
+        <v>279039.5090815688</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26738,10 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170866</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>458.2365922357236</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>767.793592164412</v>
@@ -26811,16 +26811,16 @@
         <v>767.793592164412</v>
       </c>
       <c r="J4" t="n">
-        <v>767.793592164412</v>
+        <v>767.7935921644121</v>
       </c>
       <c r="K4" t="n">
-        <v>767.793592164412</v>
+        <v>767.7935921644121</v>
       </c>
       <c r="L4" t="n">
         <v>767.793592164412</v>
       </c>
       <c r="M4" t="n">
-        <v>767.793592164412</v>
+        <v>767.7935921644121</v>
       </c>
       <c r="N4" t="n">
         <v>767.7935921644122</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>80.49292801863692</v>
+        <v>80.49292801863697</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27391,13 +27391,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0.1611818384901937</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,19 +27430,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>30.98124159877619</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27585,16 +27585,16 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>117.5062691663783</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>157.4983735401874</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>218.8388043680905</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>60.94175185772707</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27673,7 +27673,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27780,13 +27780,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>128.0571403890127</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>122.4840039614897</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,7 +27828,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>202.8068813144966</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>275.7118973565168</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>12.03533246204694</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>12.23288445056508</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28068,16 +28068,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,10 +34784,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>486.0228424856228</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>164.5350970039341</v>
+        <v>285.7832000791878</v>
       </c>
       <c r="L12" t="n">
         <v>446.2954230578256</v>
@@ -35504,7 +35504,7 @@
         <v>485.7751353889954</v>
       </c>
       <c r="P12" t="n">
-        <v>372.7025570063516</v>
+        <v>251.4544539310983</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>164.5350970039341</v>
+        <v>285.7832000791878</v>
       </c>
       <c r="L15" t="n">
         <v>446.2954230578256</v>
@@ -35741,7 +35741,7 @@
         <v>485.7751353889954</v>
       </c>
       <c r="P15" t="n">
-        <v>372.7025570063516</v>
+        <v>251.4544539310983</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35960,16 +35960,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>92.37486559213576</v>
       </c>
       <c r="K18" t="n">
-        <v>21.31796306660928</v>
+        <v>285.7832000791878</v>
       </c>
       <c r="L18" t="n">
-        <v>393.6008378695822</v>
+        <v>446.2954230578256</v>
       </c>
       <c r="M18" t="n">
-        <v>573.309972596451</v>
+        <v>163.7752848034933</v>
       </c>
       <c r="N18" t="n">
         <v>604.3494517223539</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>285.7832000791878</v>
+        <v>164.5350970039341</v>
       </c>
       <c r="L21" t="n">
         <v>446.2954230578256</v>
@@ -36212,13 +36212,13 @@
         <v>604.3494517223539</v>
       </c>
       <c r="O21" t="n">
-        <v>168.6153131881734</v>
+        <v>485.7751353889954</v>
       </c>
       <c r="P21" t="n">
         <v>372.7025570063516</v>
       </c>
       <c r="Q21" t="n">
-        <v>195.9117191255681</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36592,13 +36592,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>144.4014964555051</v>
+        <v>144.4014964555053</v>
       </c>
       <c r="K26" t="n">
         <v>338.3848596954502</v>
       </c>
       <c r="L26" t="n">
-        <v>472.6010147733834</v>
+        <v>472.6010147733837</v>
       </c>
       <c r="M26" t="n">
         <v>542.6339777586693</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>21.31796306660928</v>
+        <v>285.7832000791878</v>
       </c>
       <c r="L27" t="n">
         <v>446.2954230578256</v>
@@ -36689,10 +36689,10 @@
         <v>485.7751353889954</v>
       </c>
       <c r="P27" t="n">
-        <v>372.7025570063516</v>
+        <v>55.5427348055301</v>
       </c>
       <c r="Q27" t="n">
-        <v>143.2171339373248</v>
+        <v>195.9117191255681</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>53.68052310263725</v>
       </c>
       <c r="K30" t="n">
         <v>285.7832000791878</v>
       </c>
       <c r="L30" t="n">
-        <v>446.2954230578256</v>
+        <v>75.45507775436639</v>
       </c>
       <c r="M30" t="n">
         <v>573.309972596451</v>
@@ -36926,10 +36926,10 @@
         <v>485.7751353889954</v>
       </c>
       <c r="P30" t="n">
-        <v>251.4544539310983</v>
+        <v>372.7025570063516</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>195.9117191255681</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>21.31796306660928</v>
+        <v>164.5350970039341</v>
       </c>
       <c r="L33" t="n">
         <v>446.2954230578256</v>
@@ -37166,7 +37166,7 @@
         <v>372.7025570063516</v>
       </c>
       <c r="Q33" t="n">
-        <v>143.2171339373248</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,13 +37385,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>21.31796306660928</v>
+        <v>285.7832000791878</v>
       </c>
       <c r="L36" t="n">
-        <v>393.6008378695822</v>
+        <v>446.2954230578256</v>
       </c>
       <c r="M36" t="n">
-        <v>573.309972596451</v>
+        <v>256.150150395629</v>
       </c>
       <c r="N36" t="n">
         <v>604.3494517223539</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>164.5350970039339</v>
+        <v>21.31796306660931</v>
       </c>
       <c r="L39" t="n">
         <v>446.2954230578256</v>
@@ -37640,7 +37640,7 @@
         <v>372.7025570063516</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>143.2171339373248</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>144.4014964555051</v>
+        <v>144.4014964555055</v>
       </c>
       <c r="K41" t="n">
         <v>338.3848596954503</v>
@@ -37798,7 +37798,7 @@
         <v>355.4702139608859</v>
       </c>
       <c r="Q41" t="n">
-        <v>188.9415492268447</v>
+        <v>188.9415492268442</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>92.37486559213579</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>21.31796306660931</v>
+        <v>285.7832000791879</v>
       </c>
       <c r="L42" t="n">
         <v>446.2954230578256</v>
@@ -37874,10 +37874,10 @@
         <v>485.7751353889955</v>
       </c>
       <c r="P42" t="n">
-        <v>372.7025570063516</v>
+        <v>251.4544539310978</v>
       </c>
       <c r="Q42" t="n">
-        <v>50.84226834518898</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>144.4014964555055</v>
+        <v>144.4014964555051</v>
       </c>
       <c r="K44" t="n">
         <v>338.3848596954503</v>
@@ -38023,7 +38023,7 @@
         <v>472.6010147733837</v>
       </c>
       <c r="M44" t="n">
-        <v>542.6339777586694</v>
+        <v>542.63397775867</v>
       </c>
       <c r="N44" t="n">
         <v>536.6345673243411</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>92.37486559213579</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>285.7832000791879</v>
@@ -38105,16 +38105,16 @@
         <v>573.309972596451</v>
       </c>
       <c r="N45" t="n">
-        <v>194.8147639293962</v>
+        <v>604.349451722354</v>
       </c>
       <c r="O45" t="n">
         <v>485.7751353889955</v>
       </c>
       <c r="P45" t="n">
-        <v>372.7025570063516</v>
+        <v>251.4544539310978</v>
       </c>
       <c r="Q45" t="n">
-        <v>195.9117191255682</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
